--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4683B82-AB82-4415-8FF2-B6036FDA56F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174F9FDA-D703-459D-A66A-888C3947EC8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Database</t>
   </si>
@@ -424,6 +424,43 @@
   </si>
   <si>
     <t>GetbookEventbyId</t>
+  </si>
+  <si>
+    <t>bookevent</t>
+  </si>
+  <si>
+    <t>Id int AI PK 
+Deposit varchar(30) 
+Balance varchar(30) 
+Date date 
+Time time 
+Status varchar(30) 
+addevent_id int fk
+signup_id int fk</t>
+  </si>
+  <si>
+    <t>CREATE DEFINER=`root`@`localhost` PROCEDURE `InsertCustomerBookData`(
+IN p_Username VARCHAR(50),
+IN p_Email VARCHAR(55), 
+IN p_SPassword VARCHAR(45),
+IN p_ConfirmPassword VARCHAR(45),
+IN p_RoleId INT,
+IN p_Deposit varchar(45),
+IN p_Balance varchar(45),  
+IN p_Date Date, 
+IN p_Time Time, 
+IN p_Status VARCHAR(45), 
+IN p_addevent_id INT
+)
+BEGIN
+	DECLARE last_id INT;
+	INSERT INTO signup (Username, Email, SPassword,RoleId) VALUES (p_Username, p_Email, p_SPassword,p_RoleId);
+	SET last_id = LAST_INSERT_ID();
+	INSERT INTO bookevent (Deposit, Balance, Date, Time, Status,addevent_id,signup_id) VALUES (p_Deposit,p_Balance,p_Date,p_Time,p_Status,p_addevent_id,last_id);
+END</t>
+  </si>
+  <si>
+    <t>InsertCustomerBookData</t>
   </si>
 </sst>
 </file>
@@ -744,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C65"/>
+  <dimension ref="B2:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -777,6 +814,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="2:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="7" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>5</v>
@@ -1012,6 +1057,14 @@
       </c>
       <c r="C65" s="1" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="348" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
